--- a/5/6/2/1/1/1 mes 2021 - Diaria.xlsx
+++ b/5/6/2/1/1/1 mes 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>Serie</t>
   </si>
@@ -287,6 +287,69 @@
   </si>
   <si>
     <t>05-08-2021</t>
+  </si>
+  <si>
+    <t>06-08-2021</t>
+  </si>
+  <si>
+    <t>09-08-2021</t>
+  </si>
+  <si>
+    <t>10-08-2021</t>
+  </si>
+  <si>
+    <t>11-08-2021</t>
+  </si>
+  <si>
+    <t>12-08-2021</t>
+  </si>
+  <si>
+    <t>13-08-2021</t>
+  </si>
+  <si>
+    <t>16-08-2021</t>
+  </si>
+  <si>
+    <t>17-08-2021</t>
+  </si>
+  <si>
+    <t>18-08-2021</t>
+  </si>
+  <si>
+    <t>19-08-2021</t>
+  </si>
+  <si>
+    <t>20-08-2021</t>
+  </si>
+  <si>
+    <t>23-08-2021</t>
+  </si>
+  <si>
+    <t>24-08-2021</t>
+  </si>
+  <si>
+    <t>25-08-2021</t>
+  </si>
+  <si>
+    <t>26-08-2021</t>
+  </si>
+  <si>
+    <t>27-08-2021</t>
+  </si>
+  <si>
+    <t>30-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>02-09-2021</t>
+  </si>
+  <si>
+    <t>03-09-2021</t>
+  </si>
+  <si>
+    <t>06-09-2021</t>
   </si>
 </sst>
 </file>
@@ -644,7 +707,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:G106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2593,6 +2656,465 @@
         <v>0.82</v>
       </c>
     </row>
+    <row r="86" spans="1:7">
+      <c r="A86" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86">
+        <v>900000</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87">
+        <v>1000000</v>
+      </c>
+      <c r="C87">
+        <v>937000</v>
+      </c>
+      <c r="D87">
+        <v>500000</v>
+      </c>
+      <c r="E87">
+        <v>318000</v>
+      </c>
+      <c r="F87">
+        <v>182000</v>
+      </c>
+      <c r="G87">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88">
+        <v>900000</v>
+      </c>
+      <c r="C88">
+        <v>906800</v>
+      </c>
+      <c r="D88">
+        <v>720000</v>
+      </c>
+      <c r="E88">
+        <v>503200</v>
+      </c>
+      <c r="F88">
+        <v>216800</v>
+      </c>
+      <c r="G88">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" t="s">
+        <v>94</v>
+      </c>
+      <c r="B89">
+        <v>1000000</v>
+      </c>
+      <c r="C89">
+        <v>957000</v>
+      </c>
+      <c r="D89">
+        <v>700000</v>
+      </c>
+      <c r="E89">
+        <v>573000</v>
+      </c>
+      <c r="F89">
+        <v>127000</v>
+      </c>
+      <c r="G89">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" t="s">
+        <v>95</v>
+      </c>
+      <c r="B90">
+        <v>900000</v>
+      </c>
+      <c r="C90">
+        <v>1070000</v>
+      </c>
+      <c r="D90">
+        <v>450000</v>
+      </c>
+      <c r="E90">
+        <v>275000</v>
+      </c>
+      <c r="F90">
+        <v>175000</v>
+      </c>
+      <c r="G90">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" t="s">
+        <v>96</v>
+      </c>
+      <c r="B91">
+        <v>1000000</v>
+      </c>
+      <c r="C91">
+        <v>944000</v>
+      </c>
+      <c r="D91">
+        <v>500000</v>
+      </c>
+      <c r="E91">
+        <v>376000</v>
+      </c>
+      <c r="F91">
+        <v>124000</v>
+      </c>
+      <c r="G91">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" t="s">
+        <v>97</v>
+      </c>
+      <c r="B92">
+        <v>800000</v>
+      </c>
+      <c r="C92">
+        <v>920000</v>
+      </c>
+      <c r="D92">
+        <v>400000</v>
+      </c>
+      <c r="E92">
+        <v>270000</v>
+      </c>
+      <c r="F92">
+        <v>130000</v>
+      </c>
+      <c r="G92">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" t="s">
+        <v>98</v>
+      </c>
+      <c r="B93">
+        <v>800000</v>
+      </c>
+      <c r="C93">
+        <v>1174000</v>
+      </c>
+      <c r="D93">
+        <v>400000</v>
+      </c>
+      <c r="E93">
+        <v>286000</v>
+      </c>
+      <c r="F93">
+        <v>114000</v>
+      </c>
+      <c r="G93">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" t="s">
+        <v>99</v>
+      </c>
+      <c r="B94">
+        <v>800000</v>
+      </c>
+      <c r="C94">
+        <v>1303000</v>
+      </c>
+      <c r="D94">
+        <v>800000</v>
+      </c>
+      <c r="E94">
+        <v>688000</v>
+      </c>
+      <c r="F94">
+        <v>112000</v>
+      </c>
+      <c r="G94">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" t="s">
+        <v>100</v>
+      </c>
+      <c r="B95">
+        <v>800000</v>
+      </c>
+      <c r="C95">
+        <v>1069000</v>
+      </c>
+      <c r="D95">
+        <v>400000</v>
+      </c>
+      <c r="E95">
+        <v>301000</v>
+      </c>
+      <c r="F95">
+        <v>99000</v>
+      </c>
+      <c r="G95">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" t="s">
+        <v>101</v>
+      </c>
+      <c r="B96">
+        <v>800000</v>
+      </c>
+      <c r="C96">
+        <v>1300000</v>
+      </c>
+      <c r="D96">
+        <v>400000</v>
+      </c>
+      <c r="E96">
+        <v>350000</v>
+      </c>
+      <c r="F96">
+        <v>50000</v>
+      </c>
+      <c r="G96">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" t="s">
+        <v>102</v>
+      </c>
+      <c r="B97">
+        <v>800000</v>
+      </c>
+      <c r="C97">
+        <v>1014000</v>
+      </c>
+      <c r="D97">
+        <v>800000</v>
+      </c>
+      <c r="E97">
+        <v>736000</v>
+      </c>
+      <c r="F97">
+        <v>64000</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" t="s">
+        <v>103</v>
+      </c>
+      <c r="B98">
+        <v>800000</v>
+      </c>
+      <c r="C98">
+        <v>1171000</v>
+      </c>
+      <c r="D98">
+        <v>400000</v>
+      </c>
+      <c r="E98">
+        <v>200000</v>
+      </c>
+      <c r="F98">
+        <v>200000</v>
+      </c>
+      <c r="G98">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" t="s">
+        <v>104</v>
+      </c>
+      <c r="B99">
+        <v>800000</v>
+      </c>
+      <c r="C99">
+        <v>917000</v>
+      </c>
+      <c r="D99">
+        <v>400000</v>
+      </c>
+      <c r="E99">
+        <v>333000</v>
+      </c>
+      <c r="F99">
+        <v>67000</v>
+      </c>
+      <c r="G99">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" t="s">
+        <v>105</v>
+      </c>
+      <c r="B100">
+        <v>900000</v>
+      </c>
+      <c r="C100">
+        <v>1151000</v>
+      </c>
+      <c r="D100">
+        <v>900000</v>
+      </c>
+      <c r="E100">
+        <v>799000</v>
+      </c>
+      <c r="F100">
+        <v>101000</v>
+      </c>
+      <c r="G100">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" t="s">
+        <v>106</v>
+      </c>
+      <c r="B101">
+        <v>900000</v>
+      </c>
+      <c r="C101">
+        <v>1025000</v>
+      </c>
+      <c r="D101">
+        <v>900000</v>
+      </c>
+      <c r="E101">
+        <v>775000</v>
+      </c>
+      <c r="F101">
+        <v>125000</v>
+      </c>
+      <c r="G101">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" t="s">
+        <v>107</v>
+      </c>
+      <c r="B102">
+        <v>800000</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" t="s">
+        <v>108</v>
+      </c>
+      <c r="B103">
+        <v>900000</v>
+      </c>
+      <c r="C103">
+        <v>1558000</v>
+      </c>
+      <c r="D103">
+        <v>1350000</v>
+      </c>
+      <c r="E103">
+        <v>1157000</v>
+      </c>
+      <c r="F103">
+        <v>193000</v>
+      </c>
+      <c r="G103">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" t="s">
+        <v>109</v>
+      </c>
+      <c r="B104">
+        <v>900000</v>
+      </c>
+      <c r="C104">
+        <v>1606000</v>
+      </c>
+      <c r="D104">
+        <v>1350000</v>
+      </c>
+      <c r="E104">
+        <v>984000</v>
+      </c>
+      <c r="F104">
+        <v>366000</v>
+      </c>
+      <c r="G104">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" t="s">
+        <v>110</v>
+      </c>
+      <c r="B105">
+        <v>900000</v>
+      </c>
+      <c r="C105">
+        <v>1526000</v>
+      </c>
+      <c r="D105">
+        <v>1350000</v>
+      </c>
+      <c r="E105">
+        <v>1154000</v>
+      </c>
+      <c r="F105">
+        <v>196000</v>
+      </c>
+      <c r="G105">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" t="s">
+        <v>111</v>
+      </c>
+      <c r="B106">
+        <v>1000000</v>
+      </c>
+      <c r="C106">
+        <v>1716000</v>
+      </c>
+      <c r="D106">
+        <v>1500000</v>
+      </c>
+      <c r="E106">
+        <v>1174000</v>
+      </c>
+      <c r="F106">
+        <v>326000</v>
+      </c>
+      <c r="G106">
+        <v>1.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/2/1/1/1 mes 2021 - Diaria.xlsx
+++ b/5/6/2/1/1/1 mes 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>Serie</t>
   </si>
@@ -350,6 +350,9 @@
   </si>
   <si>
     <t>06-09-2021</t>
+  </si>
+  <si>
+    <t>07-09-2021</t>
   </si>
 </sst>
 </file>
@@ -707,7 +710,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G106"/>
+  <dimension ref="A1:G107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3115,6 +3118,29 @@
         <v>1.5</v>
       </c>
     </row>
+    <row r="107" spans="1:7">
+      <c r="A107" t="s">
+        <v>112</v>
+      </c>
+      <c r="B107">
+        <v>1000000</v>
+      </c>
+      <c r="C107">
+        <v>1261000</v>
+      </c>
+      <c r="D107">
+        <v>1000000</v>
+      </c>
+      <c r="E107">
+        <v>889000</v>
+      </c>
+      <c r="F107">
+        <v>111000</v>
+      </c>
+      <c r="G107">
+        <v>1.49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/2/1/1/1 mes 2021 - Diaria.xlsx
+++ b/5/6/2/1/1/1 mes 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t>Serie</t>
   </si>
@@ -353,6 +353,27 @@
   </si>
   <si>
     <t>07-09-2021</t>
+  </si>
+  <si>
+    <t>08-09-2021</t>
+  </si>
+  <si>
+    <t>09-09-2021</t>
+  </si>
+  <si>
+    <t>10-09-2021</t>
+  </si>
+  <si>
+    <t>13-09-2021</t>
+  </si>
+  <si>
+    <t>14-09-2021</t>
+  </si>
+  <si>
+    <t>15-09-2021</t>
+  </si>
+  <si>
+    <t>16-09-2021</t>
   </si>
 </sst>
 </file>
@@ -710,7 +731,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G107"/>
+  <dimension ref="A1:G114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3141,6 +3162,155 @@
         <v>1.49</v>
       </c>
     </row>
+    <row r="108" spans="1:7">
+      <c r="A108" t="s">
+        <v>113</v>
+      </c>
+      <c r="B108">
+        <v>600000</v>
+      </c>
+      <c r="C108">
+        <v>908000</v>
+      </c>
+      <c r="D108">
+        <v>900000</v>
+      </c>
+      <c r="E108">
+        <v>692000</v>
+      </c>
+      <c r="F108">
+        <v>208000</v>
+      </c>
+      <c r="G108">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" t="s">
+        <v>114</v>
+      </c>
+      <c r="B109">
+        <v>800000</v>
+      </c>
+      <c r="C109">
+        <v>1485000</v>
+      </c>
+      <c r="D109">
+        <v>800000</v>
+      </c>
+      <c r="E109">
+        <v>535000</v>
+      </c>
+      <c r="F109">
+        <v>265000</v>
+      </c>
+      <c r="G109">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" t="s">
+        <v>115</v>
+      </c>
+      <c r="B110">
+        <v>800000</v>
+      </c>
+      <c r="C110">
+        <v>910000</v>
+      </c>
+      <c r="D110">
+        <v>800000</v>
+      </c>
+      <c r="E110">
+        <v>490000</v>
+      </c>
+      <c r="F110">
+        <v>310000</v>
+      </c>
+      <c r="G110">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" t="s">
+        <v>116</v>
+      </c>
+      <c r="B111">
+        <v>300000</v>
+      </c>
+      <c r="C111">
+        <v>770000</v>
+      </c>
+      <c r="D111">
+        <v>450000</v>
+      </c>
+      <c r="E111">
+        <v>305000</v>
+      </c>
+      <c r="F111">
+        <v>145000</v>
+      </c>
+      <c r="G111">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" t="s">
+        <v>117</v>
+      </c>
+      <c r="B112">
+        <v>300000</v>
+      </c>
+      <c r="C112">
+        <v>629000</v>
+      </c>
+      <c r="D112">
+        <v>450000</v>
+      </c>
+      <c r="E112">
+        <v>380000</v>
+      </c>
+      <c r="F112">
+        <v>70000</v>
+      </c>
+      <c r="G112">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" t="s">
+        <v>118</v>
+      </c>
+      <c r="B113">
+        <v>800000</v>
+      </c>
+      <c r="C113">
+        <v>665000</v>
+      </c>
+      <c r="D113">
+        <v>400000</v>
+      </c>
+      <c r="E113">
+        <v>335000</v>
+      </c>
+      <c r="F113">
+        <v>65000</v>
+      </c>
+      <c r="G113">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" t="s">
+        <v>119</v>
+      </c>
+      <c r="B114">
+        <v>800000</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/2/1/1/1 mes 2021 - Diaria.xlsx
+++ b/5/6/2/1/1/1 mes 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
   <si>
     <t>Serie</t>
   </si>
@@ -374,6 +374,36 @@
   </si>
   <si>
     <t>16-09-2021</t>
+  </si>
+  <si>
+    <t>20-09-2021</t>
+  </si>
+  <si>
+    <t>21-09-2021</t>
+  </si>
+  <si>
+    <t>22-09-2021</t>
+  </si>
+  <si>
+    <t>23-09-2021</t>
+  </si>
+  <si>
+    <t>24-09-2021</t>
+  </si>
+  <si>
+    <t>27-09-2021</t>
+  </si>
+  <si>
+    <t>28-09-2021</t>
+  </si>
+  <si>
+    <t>29-09-2021</t>
+  </si>
+  <si>
+    <t>30-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -731,7 +761,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G114"/>
+  <dimension ref="A1:G124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3311,6 +3341,152 @@
         <v>0</v>
       </c>
     </row>
+    <row r="115" spans="1:7">
+      <c r="A115" t="s">
+        <v>120</v>
+      </c>
+      <c r="B115">
+        <v>800000</v>
+      </c>
+      <c r="C115">
+        <v>895000</v>
+      </c>
+      <c r="D115">
+        <v>400000</v>
+      </c>
+      <c r="E115">
+        <v>345000</v>
+      </c>
+      <c r="F115">
+        <v>55000</v>
+      </c>
+      <c r="G115">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" t="s">
+        <v>121</v>
+      </c>
+      <c r="B116">
+        <v>800000</v>
+      </c>
+      <c r="C116">
+        <v>720000</v>
+      </c>
+      <c r="D116">
+        <v>400000</v>
+      </c>
+      <c r="E116">
+        <v>250000</v>
+      </c>
+      <c r="F116">
+        <v>150000</v>
+      </c>
+      <c r="G116">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" t="s">
+        <v>122</v>
+      </c>
+      <c r="B117">
+        <v>1000000</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" t="s">
+        <v>123</v>
+      </c>
+      <c r="B118">
+        <v>800000</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" t="s">
+        <v>124</v>
+      </c>
+      <c r="B119">
+        <v>800000</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" t="s">
+        <v>125</v>
+      </c>
+      <c r="B120">
+        <v>300000</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" t="s">
+        <v>126</v>
+      </c>
+      <c r="B121">
+        <v>300000</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" t="s">
+        <v>127</v>
+      </c>
+      <c r="B122">
+        <v>300000</v>
+      </c>
+      <c r="C122">
+        <v>450000</v>
+      </c>
+      <c r="D122">
+        <v>180000</v>
+      </c>
+      <c r="E122">
+        <v>180000</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" t="s">
+        <v>128</v>
+      </c>
+      <c r="B123">
+        <v>300000</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" t="s">
+        <v>129</v>
+      </c>
+      <c r="B124">
+        <v>300000</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/2/1/1/1 mes 2021 - Diaria.xlsx
+++ b/5/6/2/1/1/1 mes 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <si>
     <t>Serie</t>
   </si>
@@ -404,6 +404,9 @@
   </si>
   <si>
     <t>01-10-2021</t>
+  </si>
+  <si>
+    <t>04-10-2021</t>
   </si>
 </sst>
 </file>
@@ -761,7 +764,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G124"/>
+  <dimension ref="A1:G125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3487,6 +3490,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="125" spans="1:7">
+      <c r="A125" t="s">
+        <v>130</v>
+      </c>
+      <c r="B125">
+        <v>200000</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/2/1/1/1 mes 2021 - Diaria.xlsx
+++ b/5/6/2/1/1/1 mes 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t>Serie</t>
   </si>
@@ -407,6 +407,15 @@
   </si>
   <si>
     <t>04-10-2021</t>
+  </si>
+  <si>
+    <t>05-10-2021</t>
+  </si>
+  <si>
+    <t>06-10-2021</t>
+  </si>
+  <si>
+    <t>07-10-2021</t>
   </si>
 </sst>
 </file>
@@ -764,7 +773,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G125"/>
+  <dimension ref="A1:G128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3501,6 +3510,51 @@
         <v>0</v>
       </c>
     </row>
+    <row r="126" spans="1:7">
+      <c r="A126" t="s">
+        <v>131</v>
+      </c>
+      <c r="B126">
+        <v>200000</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" t="s">
+        <v>132</v>
+      </c>
+      <c r="B127">
+        <v>200000</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" t="s">
+        <v>133</v>
+      </c>
+      <c r="B128">
+        <v>100000</v>
+      </c>
+      <c r="C128">
+        <v>125000</v>
+      </c>
+      <c r="D128">
+        <v>50000</v>
+      </c>
+      <c r="E128">
+        <v>40000</v>
+      </c>
+      <c r="F128">
+        <v>10000</v>
+      </c>
+      <c r="G128">
+        <v>2.23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/2/1/1/1 mes 2021 - Diaria.xlsx
+++ b/5/6/2/1/1/1 mes 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>Serie</t>
   </si>
@@ -416,6 +416,9 @@
   </si>
   <si>
     <t>07-10-2021</t>
+  </si>
+  <si>
+    <t>08-10-2021</t>
   </si>
 </sst>
 </file>
@@ -773,7 +776,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G128"/>
+  <dimension ref="A1:G129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3555,6 +3558,17 @@
         <v>2.23</v>
       </c>
     </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>134</v>
+      </c>
+      <c r="B129">
+        <v>100000</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/2/1/1/1 mes 2021 - Diaria.xlsx
+++ b/5/6/2/1/1/1 mes 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <si>
     <t>Serie</t>
   </si>
@@ -419,6 +419,12 @@
   </si>
   <si>
     <t>08-10-2021</t>
+  </si>
+  <si>
+    <t>14-10-2021</t>
+  </si>
+  <si>
+    <t>15-10-2021</t>
   </si>
 </sst>
 </file>
@@ -776,7 +782,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G129"/>
+  <dimension ref="A1:G131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3558,7 +3564,7 @@
         <v>2.23</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:7">
       <c r="A129" t="s">
         <v>134</v>
       </c>
@@ -3567,6 +3573,52 @@
       </c>
       <c r="D129">
         <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" t="s">
+        <v>135</v>
+      </c>
+      <c r="B130">
+        <v>2000000</v>
+      </c>
+      <c r="C130">
+        <v>1948000</v>
+      </c>
+      <c r="D130">
+        <v>1800000</v>
+      </c>
+      <c r="E130">
+        <v>1637000</v>
+      </c>
+      <c r="F130">
+        <v>163000</v>
+      </c>
+      <c r="G130">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" t="s">
+        <v>136</v>
+      </c>
+      <c r="B131">
+        <v>2000000</v>
+      </c>
+      <c r="C131">
+        <v>3425000</v>
+      </c>
+      <c r="D131">
+        <v>3000000</v>
+      </c>
+      <c r="E131">
+        <v>2645000</v>
+      </c>
+      <c r="F131">
+        <v>355000</v>
+      </c>
+      <c r="G131">
+        <v>2.75</v>
       </c>
     </row>
   </sheetData>

--- a/5/6/2/1/1/1 mes 2021 - Diaria.xlsx
+++ b/5/6/2/1/1/1 mes 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
   <si>
     <t>Serie</t>
   </si>
@@ -425,6 +425,36 @@
   </si>
   <si>
     <t>15-10-2021</t>
+  </si>
+  <si>
+    <t>18-10-2021</t>
+  </si>
+  <si>
+    <t>19-10-2021</t>
+  </si>
+  <si>
+    <t>20-10-2021</t>
+  </si>
+  <si>
+    <t>21-10-2021</t>
+  </si>
+  <si>
+    <t>22-10-2021</t>
+  </si>
+  <si>
+    <t>25-10-2021</t>
+  </si>
+  <si>
+    <t>26-10-2021</t>
+  </si>
+  <si>
+    <t>27-10-2021</t>
+  </si>
+  <si>
+    <t>28-10-2021</t>
+  </si>
+  <si>
+    <t>29-10-2021</t>
   </si>
 </sst>
 </file>
@@ -782,7 +812,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G131"/>
+  <dimension ref="A1:G141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3621,6 +3651,236 @@
         <v>2.75</v>
       </c>
     </row>
+    <row r="132" spans="1:7">
+      <c r="A132" t="s">
+        <v>137</v>
+      </c>
+      <c r="B132">
+        <v>1200000</v>
+      </c>
+      <c r="C132">
+        <v>2050000</v>
+      </c>
+      <c r="D132">
+        <v>1200000</v>
+      </c>
+      <c r="E132">
+        <v>840000</v>
+      </c>
+      <c r="F132">
+        <v>360000</v>
+      </c>
+      <c r="G132">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" t="s">
+        <v>138</v>
+      </c>
+      <c r="B133">
+        <v>1200000</v>
+      </c>
+      <c r="C133">
+        <v>1914000</v>
+      </c>
+      <c r="D133">
+        <v>1200000</v>
+      </c>
+      <c r="E133">
+        <v>596000</v>
+      </c>
+      <c r="F133">
+        <v>604000</v>
+      </c>
+      <c r="G133">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" t="s">
+        <v>139</v>
+      </c>
+      <c r="B134">
+        <v>1200000</v>
+      </c>
+      <c r="C134">
+        <v>1509000</v>
+      </c>
+      <c r="D134">
+        <v>1200000</v>
+      </c>
+      <c r="E134">
+        <v>801000</v>
+      </c>
+      <c r="F134">
+        <v>399000</v>
+      </c>
+      <c r="G134">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" t="s">
+        <v>140</v>
+      </c>
+      <c r="B135">
+        <v>700000</v>
+      </c>
+      <c r="C135">
+        <v>1499000</v>
+      </c>
+      <c r="D135">
+        <v>1050000</v>
+      </c>
+      <c r="E135">
+        <v>736000</v>
+      </c>
+      <c r="F135">
+        <v>314000</v>
+      </c>
+      <c r="G135">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" t="s">
+        <v>141</v>
+      </c>
+      <c r="B136">
+        <v>700000</v>
+      </c>
+      <c r="C136">
+        <v>1104000</v>
+      </c>
+      <c r="D136">
+        <v>700000</v>
+      </c>
+      <c r="E136">
+        <v>371000</v>
+      </c>
+      <c r="F136">
+        <v>329000</v>
+      </c>
+      <c r="G136">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" t="s">
+        <v>142</v>
+      </c>
+      <c r="B137">
+        <v>800000</v>
+      </c>
+      <c r="C137">
+        <v>985000</v>
+      </c>
+      <c r="D137">
+        <v>800000</v>
+      </c>
+      <c r="E137">
+        <v>455000</v>
+      </c>
+      <c r="F137">
+        <v>345000</v>
+      </c>
+      <c r="G137">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" t="s">
+        <v>143</v>
+      </c>
+      <c r="B138">
+        <v>800000</v>
+      </c>
+      <c r="C138">
+        <v>1210000</v>
+      </c>
+      <c r="D138">
+        <v>800000</v>
+      </c>
+      <c r="E138">
+        <v>590000</v>
+      </c>
+      <c r="F138">
+        <v>210000</v>
+      </c>
+      <c r="G138">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" t="s">
+        <v>144</v>
+      </c>
+      <c r="B139">
+        <v>1400000</v>
+      </c>
+      <c r="C139">
+        <v>1187000</v>
+      </c>
+      <c r="D139">
+        <v>1187000</v>
+      </c>
+      <c r="E139">
+        <v>1000000</v>
+      </c>
+      <c r="F139">
+        <v>187000</v>
+      </c>
+      <c r="G139">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" t="s">
+        <v>145</v>
+      </c>
+      <c r="B140">
+        <v>2000000</v>
+      </c>
+      <c r="C140">
+        <v>1472000</v>
+      </c>
+      <c r="D140">
+        <v>1472000</v>
+      </c>
+      <c r="E140">
+        <v>1315000</v>
+      </c>
+      <c r="F140">
+        <v>157000</v>
+      </c>
+      <c r="G140">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" t="s">
+        <v>146</v>
+      </c>
+      <c r="B141">
+        <v>1000000</v>
+      </c>
+      <c r="C141">
+        <v>933000</v>
+      </c>
+      <c r="D141">
+        <v>500000</v>
+      </c>
+      <c r="E141">
+        <v>237000</v>
+      </c>
+      <c r="F141">
+        <v>263000</v>
+      </c>
+      <c r="G141">
+        <v>2.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/2/1/1/1 mes 2021 - Diaria.xlsx
+++ b/5/6/2/1/1/1 mes 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
   <si>
     <t>Serie</t>
   </si>
@@ -455,6 +455,12 @@
   </si>
   <si>
     <t>29-10-2021</t>
+  </si>
+  <si>
+    <t>02-11-2021</t>
+  </si>
+  <si>
+    <t>03-11-2021</t>
   </si>
 </sst>
 </file>
@@ -812,7 +818,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G141"/>
+  <dimension ref="A1:G143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3881,6 +3887,52 @@
         <v>2.8</v>
       </c>
     </row>
+    <row r="142" spans="1:7">
+      <c r="A142" t="s">
+        <v>147</v>
+      </c>
+      <c r="B142">
+        <v>1000000</v>
+      </c>
+      <c r="C142">
+        <v>1815000</v>
+      </c>
+      <c r="D142">
+        <v>1000000</v>
+      </c>
+      <c r="E142">
+        <v>615000</v>
+      </c>
+      <c r="F142">
+        <v>385000</v>
+      </c>
+      <c r="G142">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" t="s">
+        <v>148</v>
+      </c>
+      <c r="B143">
+        <v>1200000</v>
+      </c>
+      <c r="C143">
+        <v>1585000</v>
+      </c>
+      <c r="D143">
+        <v>1200000</v>
+      </c>
+      <c r="E143">
+        <v>875000</v>
+      </c>
+      <c r="F143">
+        <v>325000</v>
+      </c>
+      <c r="G143">
+        <v>2.75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/2/1/1/1 mes 2021 - Diaria.xlsx
+++ b/5/6/2/1/1/1 mes 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
   <si>
     <t>Serie</t>
   </si>
@@ -461,6 +461,9 @@
   </si>
   <si>
     <t>03-11-2021</t>
+  </si>
+  <si>
+    <t>04-11-2021</t>
   </si>
 </sst>
 </file>
@@ -818,7 +821,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G143"/>
+  <dimension ref="A1:G144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3933,6 +3936,29 @@
         <v>2.75</v>
       </c>
     </row>
+    <row r="144" spans="1:7">
+      <c r="A144" t="s">
+        <v>149</v>
+      </c>
+      <c r="B144">
+        <v>800000</v>
+      </c>
+      <c r="C144">
+        <v>1708000</v>
+      </c>
+      <c r="D144">
+        <v>1200000</v>
+      </c>
+      <c r="E144">
+        <v>712000</v>
+      </c>
+      <c r="F144">
+        <v>488000</v>
+      </c>
+      <c r="G144">
+        <v>2.75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/2/1/1/1 mes 2021 - Diaria.xlsx
+++ b/5/6/2/1/1/1 mes 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
   <si>
     <t>Serie</t>
   </si>
@@ -464,6 +464,9 @@
   </si>
   <si>
     <t>04-11-2021</t>
+  </si>
+  <si>
+    <t>05-11-2021</t>
   </si>
 </sst>
 </file>
@@ -821,7 +824,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G144"/>
+  <dimension ref="A1:G145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3959,6 +3962,29 @@
         <v>2.75</v>
       </c>
     </row>
+    <row r="145" spans="1:7">
+      <c r="A145" t="s">
+        <v>150</v>
+      </c>
+      <c r="B145">
+        <v>600000</v>
+      </c>
+      <c r="C145">
+        <v>1318000</v>
+      </c>
+      <c r="D145">
+        <v>900000</v>
+      </c>
+      <c r="E145">
+        <v>482000</v>
+      </c>
+      <c r="F145">
+        <v>418000</v>
+      </c>
+      <c r="G145">
+        <v>2.74</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/2/1/1/1 mes 2021 - Diaria.xlsx
+++ b/5/6/2/1/1/1 mes 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
   <si>
     <t>Serie</t>
   </si>
@@ -467,6 +467,9 @@
   </si>
   <si>
     <t>05-11-2021</t>
+  </si>
+  <si>
+    <t>08-11-2021</t>
   </si>
 </sst>
 </file>
@@ -824,7 +827,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G145"/>
+  <dimension ref="A1:G146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3985,6 +3988,29 @@
         <v>2.74</v>
       </c>
     </row>
+    <row r="146" spans="1:7">
+      <c r="A146" t="s">
+        <v>151</v>
+      </c>
+      <c r="B146">
+        <v>800000</v>
+      </c>
+      <c r="C146">
+        <v>1215000</v>
+      </c>
+      <c r="D146">
+        <v>1200000</v>
+      </c>
+      <c r="E146">
+        <v>790000</v>
+      </c>
+      <c r="F146">
+        <v>410000</v>
+      </c>
+      <c r="G146">
+        <v>2.75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/2/1/1/1 mes 2021 - Diaria.xlsx
+++ b/5/6/2/1/1/1 mes 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
   <si>
     <t>Serie</t>
   </si>
@@ -470,6 +470,9 @@
   </si>
   <si>
     <t>08-11-2021</t>
+  </si>
+  <si>
+    <t>09-11-2021</t>
   </si>
 </sst>
 </file>
@@ -827,7 +830,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G146"/>
+  <dimension ref="A1:G147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4011,6 +4014,29 @@
         <v>2.75</v>
       </c>
     </row>
+    <row r="147" spans="1:7">
+      <c r="A147" t="s">
+        <v>152</v>
+      </c>
+      <c r="B147">
+        <v>500000</v>
+      </c>
+      <c r="C147">
+        <v>1067000</v>
+      </c>
+      <c r="D147">
+        <v>500000</v>
+      </c>
+      <c r="E147">
+        <v>333000</v>
+      </c>
+      <c r="F147">
+        <v>167000</v>
+      </c>
+      <c r="G147">
+        <v>2.74</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
